--- a/MS/Integrate/From-Tomsk/PhO2SOPh-v1-v3.xlsx
+++ b/MS/Integrate/From-Tomsk/PhO2SOPh-v1-v3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="PhO2SOPh-v1-v3" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
   <si>
     <t xml:space="preserve"> v1</t>
   </si>
@@ -54,6 +54,15 @@
   </si>
   <si>
     <t xml:space="preserve">С мг/мл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C(mol/L)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
   </si>
 </sst>
 </file>
@@ -115,8 +124,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -197,12 +205,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -308,21 +316,6 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="0.0" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -435,11 +428,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="34556699"/>
-        <c:axId val="14918708"/>
+        <c:axId val="96954113"/>
+        <c:axId val="53186020"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="34556699"/>
+        <c:axId val="96954113"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -459,24 +452,28 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr b="0" lang="ru-RU" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14918708"/>
+        <c:crossAx val="53186020"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="14918708"/>
+        <c:axId val="53186020"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -506,19 +503,23 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr b="0" lang="ru-RU" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34556699"/>
+        <c:crossAx val="96954113"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -540,20 +541,6 @@
           <a:noFill/>
         </a:ln>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="span"/>
@@ -599,21 +586,6 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -726,11 +698,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="73168013"/>
-        <c:axId val="45094163"/>
+        <c:axId val="40247319"/>
+        <c:axId val="85660166"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="73168013"/>
+        <c:axId val="40247319"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -753,18 +725,28 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" lang="ru-RU" sz="1000" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:rPr b="0" lang="ru-RU" sz="1000" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
                     <a:latin typeface="Calibri"/>
                   </a:rPr>
                   <a:t>Время, с</a:t>
@@ -773,12 +755,6 @@
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
@@ -794,24 +770,28 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr b="0" lang="ru-RU" sz="900" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45094163"/>
+        <c:crossAx val="85660166"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="45094163"/>
+        <c:axId val="85660166"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -834,18 +814,28 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" lang="ru-RU" sz="1000" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:rPr b="0" lang="ru-RU" sz="1000" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
                     <a:latin typeface="Calibri"/>
                   </a:rPr>
                   <a:t>Концентрация, мг/мл</a:t>
@@ -854,12 +844,6 @@
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
@@ -875,19 +859,23 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr b="0" lang="ru-RU" sz="900" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73168013"/>
+        <c:crossAx val="40247319"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -922,13 +910,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>327960</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>124560</xdr:rowOff>
+      <xdr:rowOff>114840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>248400</xdr:colOff>
+      <xdr:colOff>247680</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>114480</xdr:rowOff>
+      <xdr:rowOff>104400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -936,8 +924,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1287360" y="2715120"/>
-        <a:ext cx="5756040" cy="3228480"/>
+        <a:off x="1288440" y="2715120"/>
+        <a:ext cx="5760720" cy="3227760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -952,13 +940,13 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>450000</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>90360</xdr:rowOff>
+      <xdr:rowOff>81000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>78120</xdr:colOff>
+      <xdr:colOff>77400</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>80640</xdr:rowOff>
+      <xdr:rowOff>70200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -966,8 +954,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7696440" y="2842920"/>
-        <a:ext cx="4508640" cy="2742840"/>
+        <a:off x="7702920" y="2842920"/>
+        <a:ext cx="4507920" cy="2742120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -985,25 +973,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P3" activeCellId="0" sqref="P3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R4" activeCellId="0" sqref="R4:R16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="8.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="9.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="9.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="6.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="6.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="8.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="6.4"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="15" style="3" width="11.53"/>
@@ -1048,7 +1036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1097,8 +1085,14 @@
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>30</v>
       </c>
@@ -1150,8 +1144,16 @@
         <f aca="false">0.000000000001159*O3*O3+0.000000079531408*O3</f>
         <v>0.000240652795164284</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q3" s="0" t="n">
+        <f aca="false">P3/234.2701</f>
+        <v>1.02724502684843E-006</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <f aca="false">Q3*300</f>
+        <v>0.000308173508054529</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>60</v>
       </c>
@@ -1203,8 +1205,16 @@
         <f aca="false">0.000000000001159*O4*O4+0.000000079531408*O4</f>
         <v>0.000202070170224284</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q4" s="0" t="n">
+        <f aca="false">P4/234.2701</f>
+        <v>8.62552114948873E-007</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <f aca="false">Q4*300</f>
+        <v>0.000258765634484662</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>150</v>
       </c>
@@ -1256,8 +1266,16 @@
         <f aca="false">0.000000000001159*O5*O5+0.000000079531408*O5</f>
         <v>0.000497581796597884</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q5" s="0" t="n">
+        <f aca="false">P5/234.2701</f>
+        <v>2.12396629615936E-006</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <f aca="false">Q5*300</f>
+        <v>0.000637189888847808</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>300</v>
       </c>
@@ -1309,8 +1327,16 @@
         <f aca="false">0.000000000001159*O6*O6+0.000000079531408*O6</f>
         <v>0.00107410493025575</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q6" s="0" t="n">
+        <f aca="false">P6/234.2701</f>
+        <v>4.58489978130265E-006</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <f aca="false">Q6*300</f>
+        <v>0.0013754699343908</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>450</v>
       </c>
@@ -1362,8 +1388,16 @@
         <f aca="false">0.000000000001159*O7*O7+0.000000079531408*O7</f>
         <v>0.00338826884367599</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q7" s="0" t="n">
+        <f aca="false">P7/234.2701</f>
+        <v>1.44630870250877E-005</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <f aca="false">Q7*300</f>
+        <v>0.00433892610752631</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>600</v>
       </c>
@@ -1415,8 +1449,16 @@
         <f aca="false">0.000000000001159*O8*O8+0.000000079531408*O8</f>
         <v>0.00489573461098176</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q8" s="0" t="n">
+        <f aca="false">P8/234.2701</f>
+        <v>2.0897820980918E-005</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <f aca="false">Q8*300</f>
+        <v>0.0062693462942754</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>750</v>
       </c>
@@ -1468,8 +1510,16 @@
         <f aca="false">0.000000000001159*O9*O9+0.000000079531408*O9</f>
         <v>0.00663485265067122</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q9" s="0" t="n">
+        <f aca="false">P9/234.2701</f>
+        <v>2.83213805375557E-005</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <f aca="false">Q9*300</f>
+        <v>0.00849641416126671</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>900</v>
       </c>
@@ -1517,8 +1567,16 @@
         <f aca="false">(E10+I10+M10)/3</f>
         <v>75292.5</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q10" s="0" t="n">
+        <f aca="false">P10/234.2701</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <f aca="false">Q10*300</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>1050</v>
       </c>
@@ -1570,8 +1628,16 @@
         <f aca="false">0.000000000001159*O11*O11+0.000000079531408*O11</f>
         <v>0.010283373622142</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q11" s="0" t="n">
+        <f aca="false">P11/234.2701</f>
+        <v>4.3895373853266E-005</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <f aca="false">Q11*300</f>
+        <v>0.0131686121559798</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>1200</v>
       </c>
@@ -1623,8 +1689,16 @@
         <f aca="false">0.000000000001159*O12*O12+0.000000079531408*O12</f>
         <v>0.010743031799654</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q12" s="0" t="n">
+        <f aca="false">P12/234.2701</f>
+        <v>4.58574602548682E-005</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <f aca="false">Q12*300</f>
+        <v>0.0137572380764605</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>1350</v>
       </c>
@@ -1672,8 +1746,16 @@
         <f aca="false">(E13+I13+M13)/3</f>
         <v>49553.7333333333</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q13" s="0" t="n">
+        <f aca="false">P13/234.2701</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <f aca="false">Q13*300</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>1500</v>
       </c>
@@ -1721,8 +1803,16 @@
         <f aca="false">(E14+I14+M14)/3</f>
         <v>58607.0333333333</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q14" s="0" t="n">
+        <f aca="false">P14/234.2701</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <f aca="false">Q14*300</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>1650</v>
       </c>
@@ -1774,8 +1864,16 @@
         <f aca="false">0.000000000001159*O15*O15+0.000000079531408*O15</f>
         <v>0.0147169863046187</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q15" s="0" t="n">
+        <f aca="false">P15/234.2701</f>
+        <v>6.28205917213451E-005</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <f aca="false">Q15*300</f>
+        <v>0.0188461775164035</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>1800</v>
       </c>
@@ -1826,6 +1924,14 @@
       <c r="P16" s="0" t="n">
         <f aca="false">0.000000000001159*O16*O16+0.000000079531408*O16</f>
         <v>0.015021851793276</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <f aca="false">P16/234.2701</f>
+        <v>6.41219335855323E-005</v>
+      </c>
+      <c r="R16" s="0" t="n">
+        <f aca="false">Q16*300</f>
+        <v>0.0192365800756597</v>
       </c>
     </row>
   </sheetData>
@@ -1847,11 +1953,11 @@
   </sheetPr>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="R4:R16 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
   </cols>
@@ -1861,7 +1967,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1869,7 +1975,7 @@
         <v>30</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>0.000240652795164284</v>
+        <v>1.02724502684843E-006</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1877,7 +1983,7 @@
         <v>60</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>0.000202070170224284</v>
+        <v>8.62552114948873E-007</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1885,7 +1991,7 @@
         <v>150</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0.000497581796597884</v>
+        <v>2.12396629615936E-006</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1893,7 +1999,7 @@
         <v>300</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>0.00107410493025575</v>
+        <v>4.58489978130265E-006</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1901,7 +2007,7 @@
         <v>450</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>0.00338826884367599</v>
+        <v>1.44630870250877E-005</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1909,7 +2015,7 @@
         <v>600</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>0.00489573461098176</v>
+        <v>2.0897820980918E-005</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1917,20 +2023,23 @@
         <v>750</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>0.00663485265067122</v>
+        <v>2.83213805375557E-005</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>900</v>
       </c>
+      <c r="B9" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>1050</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>0.010283373622142</v>
+        <v>4.3895373853266E-005</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1938,25 +2047,31 @@
         <v>1200</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>0.010743031799654</v>
+        <v>4.58574602548682E-005</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>1350</v>
       </c>
+      <c r="B12" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>1500</v>
       </c>
+      <c r="B13" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>1650</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>0.0147169863046187</v>
+        <v>6.28205917213451E-005</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1964,7 +2079,7 @@
         <v>1800</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>0.015021851793276</v>
+        <v>6.41219335855323E-005</v>
       </c>
     </row>
   </sheetData>
